--- a/Multi-taxa_data/Primer/cov_primer.xlsx
+++ b/Multi-taxa_data/Primer/cov_primer.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\Primer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E0D894-B6EA-4E78-8B50-D976111DF8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C45513-E07A-4D00-90AD-500B7C0F100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cov_mat_primer" sheetId="1" r:id="rId1"/>
-    <sheet name="primer" sheetId="3" r:id="rId2"/>
+    <sheet name="primer" sheetId="3" r:id="rId1"/>
+    <sheet name="cov_mat_primer" sheetId="1" r:id="rId2"/>
     <sheet name="ind_df_primer" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -954,6 +954,3198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BA925C-1730-4DB0-AE2E-0E6C42ECE8C6}">
+  <dimension ref="A2:BR17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>0.85</v>
+      </c>
+      <c r="C3">
+        <v>0.92</v>
+      </c>
+      <c r="D3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.874</v>
+      </c>
+      <c r="G3">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.497</v>
+      </c>
+      <c r="I3">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="M3">
+        <v>0.61</v>
+      </c>
+      <c r="N3">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.48</v>
+      </c>
+      <c r="P3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.161</v>
+      </c>
+      <c r="S3">
+        <v>0.214</v>
+      </c>
+      <c r="T3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="U3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="V3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.438</v>
+      </c>
+      <c r="X3">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>0.36</v>
+      </c>
+      <c r="Z3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.309</v>
+      </c>
+      <c r="AC3">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AD3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AE3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AF3">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AG3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="AI3">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AJ3">
+        <v>0.61</v>
+      </c>
+      <c r="AK3">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="AL3">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>0.48</v>
+      </c>
+      <c r="AN3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="AP3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AQ3">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AR3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="AS3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="AT3">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AU3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AV3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AW3">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AX3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>0.502</v>
+      </c>
+      <c r="AZ3">
+        <v>0.76</v>
+      </c>
+      <c r="BA3">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="BB3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BC3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="BD3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="BE3">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="BF3">
+        <v>0.499</v>
+      </c>
+      <c r="BG3">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="BH3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="BI3">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="BJ3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="BK3">
+        <v>0.621</v>
+      </c>
+      <c r="BL3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="BM3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="BN3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="BO3">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="BP3">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="BQ3">
+        <v>0.5</v>
+      </c>
+      <c r="BR3">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="U4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="V4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0.13</v>
+      </c>
+      <c r="AV4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AX4">
+        <v>0.108</v>
+      </c>
+      <c r="AY4">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AZ4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="BA4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="BH4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BK4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="BL4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.104</v>
+      </c>
+      <c r="I5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.152</v>
+      </c>
+      <c r="K5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.26</v>
+      </c>
+      <c r="M5">
+        <v>0.107</v>
+      </c>
+      <c r="N5">
+        <v>0.129</v>
+      </c>
+      <c r="O5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S5">
+        <v>0.01</v>
+      </c>
+      <c r="T5">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="U5">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="V5">
+        <v>0.624</v>
+      </c>
+      <c r="W5">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="X5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.09</v>
+      </c>
+      <c r="AA5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AB5">
+        <v>0.216</v>
+      </c>
+      <c r="AC5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AD5">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AE5">
+        <v>0.11</v>
+      </c>
+      <c r="AF5">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AG5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AH5">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AI5">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AK5">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AL5">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AM5">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="AN5">
+        <v>0.25</v>
+      </c>
+      <c r="AO5">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AP5">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>0.187</v>
+      </c>
+      <c r="AR5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AS5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT5">
+        <v>0.245</v>
+      </c>
+      <c r="AU5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AV5">
+        <v>0.03</v>
+      </c>
+      <c r="AW5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AX5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AY5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AZ5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="BA5">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="BB5">
+        <v>0.39</v>
+      </c>
+      <c r="BC5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="BD5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="BE5">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="BF5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="BG5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="BI5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="BJ5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="BK5">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="BL5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="BM5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="BN5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="BO5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="BP5">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="BQ5">
+        <v>0.437</v>
+      </c>
+      <c r="BR5">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1E-3</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>2E-3</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>2E-3</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AM6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AN6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AO6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>2E-3</v>
+      </c>
+      <c r="AR6">
+        <v>1E-3</v>
+      </c>
+      <c r="AS6">
+        <v>1E-3</v>
+      </c>
+      <c r="AT6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BB6">
+        <v>2E-3</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BH6">
+        <v>2E-3</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.01</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1E-3</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AH7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AL7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AM7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AN7">
+        <v>0.247</v>
+      </c>
+      <c r="AO7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0.01</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>2E-3</v>
+      </c>
+      <c r="AF8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AH8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AI8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AK8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AL8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AM8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AN8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AO8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AQ8">
+        <v>0.113</v>
+      </c>
+      <c r="AR8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AS8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0.158</v>
+      </c>
+      <c r="AV8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AZ8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0.113</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C9">
+        <v>1E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9">
+        <v>2E-3</v>
+      </c>
+      <c r="H9">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.107</v>
+      </c>
+      <c r="J9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="R9">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="S9">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="T9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="W9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2E-3</v>
+      </c>
+      <c r="Z9">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AB9">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AC9">
+        <v>0.106</v>
+      </c>
+      <c r="AD9">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>2E-3</v>
+      </c>
+      <c r="AU9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AW9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AX9">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AY9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AZ9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="BA9">
+        <v>0.114</v>
+      </c>
+      <c r="BB9">
+        <v>0.08</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>2E-3</v>
+      </c>
+      <c r="BE9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BF9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BG9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="BH9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BI9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BJ9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="BK9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="BN9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BO9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BR9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+      <c r="J10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="V10">
+        <v>0.02</v>
+      </c>
+      <c r="W10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="X10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Y10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AA10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AG10">
+        <v>2E-3</v>
+      </c>
+      <c r="AH10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AI10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AK10">
+        <v>1E-3</v>
+      </c>
+      <c r="AL10">
+        <v>1E-3</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>2E-3</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AR10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AT10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AU10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AV10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AW10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AX10">
+        <v>0.05</v>
+      </c>
+      <c r="AY10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AZ10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BA10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BB10">
+        <v>0.05</v>
+      </c>
+      <c r="BC10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BD10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="BE10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="BF10">
+        <v>0.01</v>
+      </c>
+      <c r="BG10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BH10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BI10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="BJ10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BK10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BL10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="BM10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BN10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BO10">
+        <v>2E-3</v>
+      </c>
+      <c r="BP10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BQ10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="BR10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="P11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1E-3</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1E-3</v>
+      </c>
+      <c r="X11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z11">
+        <v>0.06</v>
+      </c>
+      <c r="AA11">
+        <v>0.06</v>
+      </c>
+      <c r="AB11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AD11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE11">
+        <v>0.05</v>
+      </c>
+      <c r="AF11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0.01</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AP11">
+        <v>1E-3</v>
+      </c>
+      <c r="AQ11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AR11">
+        <v>1E-3</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AW11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AX11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AY11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AZ11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BB11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BE11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BF11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="BG11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BH11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BI11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="BJ11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BK11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BL11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BM11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BN11">
+        <v>1E-3</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BQ11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BR11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>150</v>
+      </c>
+      <c r="S13" t="s">
+        <v>150</v>
+      </c>
+      <c r="T13" t="s">
+        <v>151</v>
+      </c>
+      <c r="U13" t="s">
+        <v>151</v>
+      </c>
+      <c r="V13" t="s">
+        <v>151</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>156</v>
+      </c>
+      <c r="R14" t="s">
+        <v>156</v>
+      </c>
+      <c r="S14" t="s">
+        <v>156</v>
+      </c>
+      <c r="T14" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" t="s">
+        <v>157</v>
+      </c>
+      <c r="V14" t="s">
+        <v>157</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>168</v>
+      </c>
+      <c r="R15" t="s">
+        <v>168</v>
+      </c>
+      <c r="S15" t="s">
+        <v>168</v>
+      </c>
+      <c r="T15" t="s">
+        <v>167</v>
+      </c>
+      <c r="U15" t="s">
+        <v>167</v>
+      </c>
+      <c r="V15" t="s">
+        <v>167</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>175</v>
+      </c>
+      <c r="R16" t="s">
+        <v>175</v>
+      </c>
+      <c r="S16" t="s">
+        <v>175</v>
+      </c>
+      <c r="T16" t="s">
+        <v>176</v>
+      </c>
+      <c r="U16" t="s">
+        <v>176</v>
+      </c>
+      <c r="V16" t="s">
+        <v>176</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R17" t="s">
+        <v>195</v>
+      </c>
+      <c r="S17" t="s">
+        <v>195</v>
+      </c>
+      <c r="T17" t="s">
+        <v>196</v>
+      </c>
+      <c r="U17" t="s">
+        <v>196</v>
+      </c>
+      <c r="V17" t="s">
+        <v>196</v>
+      </c>
+      <c r="W17" t="s">
+        <v>197</v>
+      </c>
+      <c r="X17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR10"/>
   <sheetViews>
@@ -3086,3198 +6278,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BA925C-1730-4DB0-AE2E-0E6C42ECE8C6}">
-  <dimension ref="A2:BR17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3">
-        <v>0.85</v>
-      </c>
-      <c r="C3">
-        <v>0.92</v>
-      </c>
-      <c r="D3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="E3">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="F3">
-        <v>0.874</v>
-      </c>
-      <c r="G3">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="H3">
-        <v>0.497</v>
-      </c>
-      <c r="I3">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="J3">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="M3">
-        <v>0.61</v>
-      </c>
-      <c r="N3">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="O3">
-        <v>0.48</v>
-      </c>
-      <c r="P3">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="Q3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="R3">
-        <v>0.161</v>
-      </c>
-      <c r="S3">
-        <v>0.214</v>
-      </c>
-      <c r="T3">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="U3">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="V3">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="W3">
-        <v>0.438</v>
-      </c>
-      <c r="X3">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="Y3">
-        <v>0.36</v>
-      </c>
-      <c r="Z3">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="AA3">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="AB3">
-        <v>0.309</v>
-      </c>
-      <c r="AC3">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="AD3">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="AE3">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="AF3">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="AG3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AH3">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="AI3">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="AJ3">
-        <v>0.61</v>
-      </c>
-      <c r="AK3">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="AL3">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="AM3">
-        <v>0.48</v>
-      </c>
-      <c r="AN3">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="AO3">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="AP3">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="AQ3">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="AR3">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="AS3">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="AT3">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="AU3">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="AV3">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="AW3">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="AX3">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AY3">
-        <v>0.502</v>
-      </c>
-      <c r="AZ3">
-        <v>0.76</v>
-      </c>
-      <c r="BA3">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="BB3">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="BC3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="BD3">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="BE3">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="BF3">
-        <v>0.499</v>
-      </c>
-      <c r="BG3">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="BH3">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="BI3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="BJ3">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="BK3">
-        <v>0.621</v>
-      </c>
-      <c r="BL3">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="BM3">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="BN3">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="BO3">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="BP3">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="BQ3">
-        <v>0.5</v>
-      </c>
-      <c r="BR3">
-        <v>0.54700000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="U4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="V4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="W4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="X4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Y4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0.13</v>
-      </c>
-      <c r="AV4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AW4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AX4">
-        <v>0.108</v>
-      </c>
-      <c r="AY4">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="AZ4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="BA4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="BH4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="BK4">
-        <v>5.5E-2</v>
-      </c>
-      <c r="BL4">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F5">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.104</v>
-      </c>
-      <c r="I5">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="J5">
-        <v>0.152</v>
-      </c>
-      <c r="K5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.26</v>
-      </c>
-      <c r="M5">
-        <v>0.107</v>
-      </c>
-      <c r="N5">
-        <v>0.129</v>
-      </c>
-      <c r="O5">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.1</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="S5">
-        <v>0.01</v>
-      </c>
-      <c r="T5">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="U5">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="V5">
-        <v>0.624</v>
-      </c>
-      <c r="W5">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="X5">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="Y5">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="Z5">
-        <v>0.09</v>
-      </c>
-      <c r="AA5">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="AB5">
-        <v>0.216</v>
-      </c>
-      <c r="AC5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AD5">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="AE5">
-        <v>0.11</v>
-      </c>
-      <c r="AF5">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="AG5">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="AH5">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="AI5">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="AJ5">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="AK5">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="AL5">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="AM5">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="AN5">
-        <v>0.25</v>
-      </c>
-      <c r="AO5">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="AP5">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="AQ5">
-        <v>0.187</v>
-      </c>
-      <c r="AR5">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="AS5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AT5">
-        <v>0.245</v>
-      </c>
-      <c r="AU5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="AV5">
-        <v>0.03</v>
-      </c>
-      <c r="AW5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="AX5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AY5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="AZ5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="BA5">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="BB5">
-        <v>0.39</v>
-      </c>
-      <c r="BC5">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="BD5">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="BE5">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="BF5">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="BG5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH5">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="BI5">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="BJ5">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="BK5">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="BL5">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="BM5">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="BN5">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="BO5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="BP5">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="BQ5">
-        <v>0.437</v>
-      </c>
-      <c r="BR5">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1E-3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1E-3</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>2E-3</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>2E-3</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>3.1E-2</v>
-      </c>
-      <c r="AM6">
-        <v>3.9E-2</v>
-      </c>
-      <c r="AN6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AO6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>2E-3</v>
-      </c>
-      <c r="AR6">
-        <v>1E-3</v>
-      </c>
-      <c r="AS6">
-        <v>1E-3</v>
-      </c>
-      <c r="AT6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BB6">
-        <v>2E-3</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH6">
-        <v>2E-3</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E7">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F7">
-        <v>1E-3</v>
-      </c>
-      <c r="G7">
-        <v>0.01</v>
-      </c>
-      <c r="H7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0.01</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>1E-3</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AG7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="AH7">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AI7">
-        <v>1E-3</v>
-      </c>
-      <c r="AJ7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="AK7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AL7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AM7">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="AN7">
-        <v>0.247</v>
-      </c>
-      <c r="AO7">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AP7">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AQ7">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="AR7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0.01</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C8">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F8">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H8">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="I8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>2E-3</v>
-      </c>
-      <c r="AF8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AG8">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AH8">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="AI8">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="AJ8">
-        <v>9.4E-2</v>
-      </c>
-      <c r="AK8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="AL8">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="AM8">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="AN8">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AO8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AP8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AQ8">
-        <v>0.113</v>
-      </c>
-      <c r="AR8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AS8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0.158</v>
-      </c>
-      <c r="AV8">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0.113</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C9">
-        <v>1E-3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1E-3</v>
-      </c>
-      <c r="G9">
-        <v>2E-3</v>
-      </c>
-      <c r="H9">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="I9">
-        <v>0.107</v>
-      </c>
-      <c r="J9">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M9">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="N9">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="O9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="P9">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="Q9">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="R9">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="S9">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="T9">
-        <v>2.3E-2</v>
-      </c>
-      <c r="U9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="V9">
-        <v>2.4E-2</v>
-      </c>
-      <c r="W9">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="X9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="Y9">
-        <v>2E-3</v>
-      </c>
-      <c r="Z9">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="AA9">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="AB9">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="AC9">
-        <v>0.106</v>
-      </c>
-      <c r="AD9">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AE9">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>2E-3</v>
-      </c>
-      <c r="AU9">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="AV9">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="AW9">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="AX9">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="AY9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AZ9">
-        <v>4.7E-2</v>
-      </c>
-      <c r="BA9">
-        <v>0.114</v>
-      </c>
-      <c r="BB9">
-        <v>0.08</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>2E-3</v>
-      </c>
-      <c r="BE9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="BF9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="BG9">
-        <v>3.1E-2</v>
-      </c>
-      <c r="BH9">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="BI9">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="BJ9">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="BK9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="BN9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="BO9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="BR9">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C10">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E10">
-        <v>1E-3</v>
-      </c>
-      <c r="F10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H10">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.01</v>
-      </c>
-      <c r="J10">
-        <v>2.4E-2</v>
-      </c>
-      <c r="K10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="O10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="P10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="T10">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="V10">
-        <v>0.02</v>
-      </c>
-      <c r="W10">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="X10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Y10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Z10">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AA10">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AE10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AF10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AG10">
-        <v>2E-3</v>
-      </c>
-      <c r="AH10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AI10">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AJ10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AK10">
-        <v>1E-3</v>
-      </c>
-      <c r="AL10">
-        <v>1E-3</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>2E-3</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AR10">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AS10">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AT10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="AU10">
-        <v>2.4E-2</v>
-      </c>
-      <c r="AV10">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AW10">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AX10">
-        <v>0.05</v>
-      </c>
-      <c r="AY10">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AZ10">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="BA10">
-        <v>1.6E-2</v>
-      </c>
-      <c r="BB10">
-        <v>0.05</v>
-      </c>
-      <c r="BC10">
-        <v>1.6E-2</v>
-      </c>
-      <c r="BD10">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="BE10">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="BF10">
-        <v>0.01</v>
-      </c>
-      <c r="BG10">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="BH10">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="BI10">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="BJ10">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="BK10">
-        <v>2.4E-2</v>
-      </c>
-      <c r="BL10">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="BM10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="BN10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BO10">
-        <v>2E-3</v>
-      </c>
-      <c r="BP10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="BQ10">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="BR10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M11">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="P11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>1E-3</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1E-3</v>
-      </c>
-      <c r="X11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="Y11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Z11">
-        <v>0.06</v>
-      </c>
-      <c r="AA11">
-        <v>0.06</v>
-      </c>
-      <c r="AB11">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AC11">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AD11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AE11">
-        <v>0.05</v>
-      </c>
-      <c r="AF11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>1.4E-2</v>
-      </c>
-      <c r="AJ11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0.01</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP11">
-        <v>1E-3</v>
-      </c>
-      <c r="AQ11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="AR11">
-        <v>1E-3</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AW11">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AX11">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="AY11">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AZ11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BA11">
-        <v>1.9E-2</v>
-      </c>
-      <c r="BB11">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>1.9E-2</v>
-      </c>
-      <c r="BE11">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="BF11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="BG11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH11">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="BI11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="BJ11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BK11">
-        <v>1.4E-2</v>
-      </c>
-      <c r="BL11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="BM11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BN11">
-        <v>1E-3</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BQ11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="BR11">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N13" t="s">
-        <v>150</v>
-      </c>
-      <c r="O13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>150</v>
-      </c>
-      <c r="R13" t="s">
-        <v>150</v>
-      </c>
-      <c r="S13" t="s">
-        <v>150</v>
-      </c>
-      <c r="T13" t="s">
-        <v>151</v>
-      </c>
-      <c r="U13" t="s">
-        <v>151</v>
-      </c>
-      <c r="V13" t="s">
-        <v>151</v>
-      </c>
-      <c r="W13" t="s">
-        <v>151</v>
-      </c>
-      <c r="X13" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" t="s">
-        <v>156</v>
-      </c>
-      <c r="O14" t="s">
-        <v>156</v>
-      </c>
-      <c r="P14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>156</v>
-      </c>
-      <c r="R14" t="s">
-        <v>156</v>
-      </c>
-      <c r="S14" t="s">
-        <v>156</v>
-      </c>
-      <c r="T14" t="s">
-        <v>157</v>
-      </c>
-      <c r="U14" t="s">
-        <v>157</v>
-      </c>
-      <c r="V14" t="s">
-        <v>157</v>
-      </c>
-      <c r="W14" t="s">
-        <v>157</v>
-      </c>
-      <c r="X14" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>165</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" t="s">
-        <v>167</v>
-      </c>
-      <c r="K15" t="s">
-        <v>168</v>
-      </c>
-      <c r="L15" t="s">
-        <v>168</v>
-      </c>
-      <c r="M15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N15" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" t="s">
-        <v>167</v>
-      </c>
-      <c r="P15" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>168</v>
-      </c>
-      <c r="R15" t="s">
-        <v>168</v>
-      </c>
-      <c r="S15" t="s">
-        <v>168</v>
-      </c>
-      <c r="T15" t="s">
-        <v>167</v>
-      </c>
-      <c r="U15" t="s">
-        <v>167</v>
-      </c>
-      <c r="V15" t="s">
-        <v>167</v>
-      </c>
-      <c r="W15" t="s">
-        <v>168</v>
-      </c>
-      <c r="X15" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" t="s">
-        <v>172</v>
-      </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O16" t="s">
-        <v>174</v>
-      </c>
-      <c r="P16" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>175</v>
-      </c>
-      <c r="R16" t="s">
-        <v>175</v>
-      </c>
-      <c r="S16" t="s">
-        <v>175</v>
-      </c>
-      <c r="T16" t="s">
-        <v>176</v>
-      </c>
-      <c r="U16" t="s">
-        <v>176</v>
-      </c>
-      <c r="V16" t="s">
-        <v>176</v>
-      </c>
-      <c r="W16" t="s">
-        <v>177</v>
-      </c>
-      <c r="X16" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>188</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>188</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>189</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>190</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>191</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>191</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>192</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" t="s">
-        <v>195</v>
-      </c>
-      <c r="L17" t="s">
-        <v>195</v>
-      </c>
-      <c r="M17" t="s">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s">
-        <v>194</v>
-      </c>
-      <c r="O17" t="s">
-        <v>194</v>
-      </c>
-      <c r="P17" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R17" t="s">
-        <v>195</v>
-      </c>
-      <c r="S17" t="s">
-        <v>195</v>
-      </c>
-      <c r="T17" t="s">
-        <v>196</v>
-      </c>
-      <c r="U17" t="s">
-        <v>196</v>
-      </c>
-      <c r="V17" t="s">
-        <v>196</v>
-      </c>
-      <c r="W17" t="s">
-        <v>197</v>
-      </c>
-      <c r="X17" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
